--- a/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/shanghai/shanghaiCaseStatistics_20200218.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\lab\疫情可视化\每日数据更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\2.1核查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2811BEE0-F2D5-4298-821C-AFB13EA57EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1060" windowWidth="14400" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1065" windowWidth="14400" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -383,7 +382,7 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -399,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9354" uniqueCount="3326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9357" uniqueCount="3329">
   <si>
     <t>统计级别</t>
   </si>
@@ -10283,10 +10282,6 @@
   </si>
   <si>
     <t>张彦玲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未核查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -12005,11 +12000,27 @@
     <t>http://wsjkw.sh.gov.cn/xwfb/20200219/645a012cb78a4c109ace96293ecd0e2e.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>已核查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭泽添</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核查通过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -12459,57 +12470,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.921875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.23046875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="13" customWidth="1"/>
     <col min="7" max="7" width="12" style="13" customWidth="1"/>
-    <col min="8" max="8" width="6.3828125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.84375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="7.84375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="7.921875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="8.15234375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="8.07421875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="5.84375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="6.4609375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="13" customWidth="1"/>
+    <col min="10" max="11" width="7.875" style="13" customWidth="1"/>
+    <col min="12" max="13" width="8.125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.07421875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.07421875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.921875" style="13"/>
+    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -12677,10 +12686,10 @@
         <v>43880.336111111108</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15">
@@ -12693,9 +12702,20 @@
         <v>3291</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>3292</v>
-      </c>
-      <c r="AD2" s="15"/>
+        <v>3325</v>
+      </c>
+      <c r="AD2" s="15">
+        <v>43880.461111111108</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>3327</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>3328</v>
+      </c>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
@@ -12737,10 +12757,10 @@
         <v>43880.336111111108</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="V3" s="20" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="Z3" s="15">
         <v>43880.413194444445</v>
@@ -12752,7 +12772,7 @@
         <v>3291</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -12790,10 +12810,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z4" s="15">
         <v>43880.413194444445</v>
@@ -12805,7 +12825,7 @@
         <v>3291</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -12846,10 +12866,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z5" s="15">
         <v>43880.413194444445</v>
@@ -12861,7 +12881,7 @@
         <v>3291</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -12899,10 +12919,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z6" s="15">
         <v>43880.413194444445</v>
@@ -12914,7 +12934,7 @@
         <v>3291</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -12937,7 +12957,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="K7" s="13">
         <v>3</v>
@@ -12955,10 +12975,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="V7" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z7" s="15">
         <v>43880.413194444445</v>
@@ -12970,7 +12990,7 @@
         <v>3291</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -12993,7 +13013,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="M8" s="13">
         <v>16</v>
@@ -13008,10 +13028,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z8" s="15">
         <v>43880.413194444445</v>
@@ -13023,7 +13043,7 @@
         <v>3291</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -13046,7 +13066,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="K9" s="13">
         <v>1</v>
@@ -13064,10 +13084,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z9" s="15">
         <v>43880.413194444445</v>
@@ -13079,7 +13099,7 @@
         <v>3291</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -13102,7 +13122,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="M10" s="13">
         <v>13</v>
@@ -13117,10 +13137,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z10" s="15">
         <v>43880.413194444445</v>
@@ -13132,7 +13152,7 @@
         <v>3291</v>
       </c>
       <c r="AC10" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -13155,7 +13175,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="M11" s="13">
         <v>11</v>
@@ -13170,10 +13190,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z11" s="15">
         <v>43880.413194444445</v>
@@ -13185,7 +13205,7 @@
         <v>3291</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -13208,7 +13228,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="M12" s="13">
         <v>9</v>
@@ -13223,10 +13243,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z12" s="15">
         <v>43880.413194444445</v>
@@ -13238,7 +13258,7 @@
         <v>3291</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -13261,7 +13281,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="M13" s="13">
         <v>9</v>
@@ -13276,10 +13296,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z13" s="15">
         <v>43880.413194444445</v>
@@ -13291,7 +13311,7 @@
         <v>3291</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -13314,7 +13334,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="K14" s="13">
         <v>2</v>
@@ -13332,10 +13352,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z14" s="15">
         <v>43880.413194444445</v>
@@ -13347,7 +13367,7 @@
         <v>3291</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -13370,7 +13390,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="M15" s="13">
         <v>7</v>
@@ -13385,10 +13405,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="V15" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z15" s="15">
         <v>43880.413194444445</v>
@@ -13400,7 +13420,7 @@
         <v>3291</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -13423,7 +13443,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="M16" s="13">
         <v>6</v>
@@ -13438,10 +13458,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z16" s="15">
         <v>43880.413194444445</v>
@@ -13453,7 +13473,7 @@
         <v>3291</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -13476,7 +13496,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="M17" s="13">
         <v>5</v>
@@ -13491,10 +13511,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z17" s="15">
         <v>43880.413194444445</v>
@@ -13506,7 +13526,7 @@
         <v>3291</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -13529,7 +13549,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="M18" s="13">
         <v>3</v>
@@ -13544,10 +13564,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="Z18" s="15">
         <v>43880.413194444445</v>
@@ -13559,7 +13579,7 @@
         <v>3291</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -13582,7 +13602,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="K19" s="13">
         <v>1</v>
@@ -13600,10 +13620,10 @@
         <v>43880.336111053242</v>
       </c>
       <c r="U19" s="19" t="s">
+        <v>3322</v>
+      </c>
+      <c r="V19" s="20" t="s">
         <v>3323</v>
-      </c>
-      <c r="V19" s="20" t="s">
-        <v>3324</v>
       </c>
       <c r="Z19" s="15">
         <v>43880.413194444445</v>
@@ -13615,60 +13635,60 @@
         <v>3291</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>3292</v>
+        <v>3325</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE1048576 AK2:AK1048576 AA2:AA1048576">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{7F93B640-2A35-4E0D-9864-E0664F005154}"/>
-    <hyperlink ref="V3" r:id="rId2" xr:uid="{C00AE28B-5FC5-41C2-B57A-44377D7A6AC9}"/>
-    <hyperlink ref="V4" r:id="rId3" xr:uid="{F91FC2EE-667A-4AF8-A520-DE2DC8CD2A14}"/>
-    <hyperlink ref="V6" r:id="rId4" xr:uid="{4011B3F6-6E47-4C82-A496-82BA4AACDED7}"/>
-    <hyperlink ref="V8" r:id="rId5" xr:uid="{78030ED8-124A-4906-8C8F-6FFA06E88A07}"/>
-    <hyperlink ref="V10" r:id="rId6" xr:uid="{A82C48B3-50A6-4BEF-B351-7910BDE79065}"/>
-    <hyperlink ref="V12" r:id="rId7" xr:uid="{528B622E-1F9F-4024-B697-8F209FCBABB0}"/>
-    <hyperlink ref="V14" r:id="rId8" xr:uid="{9380368F-DD0D-4D91-B18F-C13A1082ECA5}"/>
-    <hyperlink ref="V16" r:id="rId9" xr:uid="{C5130FEB-DA1E-4AEF-A684-B64D3BE4A6F6}"/>
-    <hyperlink ref="V18" r:id="rId10" xr:uid="{5E8D7511-84E5-453D-8891-A1F0EBC3B619}"/>
-    <hyperlink ref="V5" r:id="rId11" xr:uid="{97CFF862-FD46-417A-AEE7-C1252DD178A1}"/>
-    <hyperlink ref="V7" r:id="rId12" xr:uid="{F35F4263-522E-4A89-A88C-718AD4D340DD}"/>
-    <hyperlink ref="V9" r:id="rId13" xr:uid="{058502E5-0F2A-4A80-A34C-1E994B551679}"/>
-    <hyperlink ref="V11" r:id="rId14" xr:uid="{16428D34-5F41-4540-B1A9-968DFE35A60B}"/>
-    <hyperlink ref="V13" r:id="rId15" xr:uid="{C550E5ED-83CF-4F74-B333-275574784ED4}"/>
-    <hyperlink ref="V15" r:id="rId16" xr:uid="{98842DFD-2C87-4AC1-98CA-68C85D5BE3F3}"/>
-    <hyperlink ref="V17" r:id="rId17" xr:uid="{204A0703-2993-4D41-A62B-17B03B54666B}"/>
-    <hyperlink ref="V19" r:id="rId18" xr:uid="{752C1621-592F-469D-B068-7BE3215C6D63}"/>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="V3" r:id="rId2"/>
+    <hyperlink ref="V4" r:id="rId3"/>
+    <hyperlink ref="V6" r:id="rId4"/>
+    <hyperlink ref="V8" r:id="rId5"/>
+    <hyperlink ref="V10" r:id="rId6"/>
+    <hyperlink ref="V12" r:id="rId7"/>
+    <hyperlink ref="V14" r:id="rId8"/>
+    <hyperlink ref="V16" r:id="rId9"/>
+    <hyperlink ref="V18" r:id="rId10"/>
+    <hyperlink ref="V5" r:id="rId11"/>
+    <hyperlink ref="V7" r:id="rId12"/>
+    <hyperlink ref="V9" r:id="rId13"/>
+    <hyperlink ref="V11" r:id="rId14"/>
+    <hyperlink ref="V13" r:id="rId15"/>
+    <hyperlink ref="V15" r:id="rId16"/>
+    <hyperlink ref="V17" r:id="rId17"/>
+    <hyperlink ref="V19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -13681,7 +13701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
@@ -13689,10 +13709,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
